--- a/Test.xlsx
+++ b/Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="1">
   <si>
     <t>aaaaaaaaaaaaaaaa</t>
   </si>
@@ -417,7 +417,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -682,9 +682,6 @@
       <c r="B12" t="s">
         <v>0</v>
       </c>
-      <c r="C12" t="s">
-        <v>0</v>
-      </c>
       <c r="D12" t="s">
         <v>0</v>
       </c>
@@ -798,9 +795,6 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" t="s">
         <v>0</v>
       </c>
       <c r="E17" t="s">

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -19,9 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="2">
   <si>
     <t>aaaaaaaaaaaaaaaa</t>
+  </si>
+  <si>
+    <t>BBBBBBBBBBB</t>
   </si>
 </sst>
 </file>
@@ -417,7 +420,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -772,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="s">
         <v>0</v>
